--- a/CANMFA_Anschluss.xlsx
+++ b/CANMFA_Anschluss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -272,12 +272,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,8 +304,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -650,7 +664,7 @@
   <dimension ref="A2:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +730,7 @@
       <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K3" t="s">
@@ -739,7 +753,7 @@
       <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="K4" t="s">
@@ -762,7 +776,7 @@
       <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K5" t="s">
@@ -785,7 +799,7 @@
       <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6" t="s">
@@ -808,7 +822,7 @@
       <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7" t="s">
@@ -831,7 +845,7 @@
       <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8" t="s">
@@ -854,7 +868,7 @@
       <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9" t="s">
@@ -877,7 +891,7 @@
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10" t="s">
@@ -906,7 +920,7 @@
       <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K11" t="s">
@@ -981,7 +995,7 @@
       <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K14" t="s">
@@ -1010,7 +1024,7 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="K15" t="s">
@@ -1039,7 +1053,7 @@
       <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K16" t="s">
@@ -1068,7 +1082,7 @@
       <c r="I17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K17" t="s">
@@ -1097,7 +1111,7 @@
       <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K18" t="s">
@@ -1126,7 +1140,7 @@
       <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K19" t="s">
@@ -1155,7 +1169,7 @@
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K20" t="s">
@@ -1184,7 +1198,7 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K21" t="s">

--- a/CANMFA_Anschluss.xlsx
+++ b/CANMFA_Anschluss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t>T20</t>
   </si>
@@ -257,13 +257,16 @@
   </si>
   <si>
     <t>Leitungsverteiler</t>
+  </si>
+  <si>
+    <t>58b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +274,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +308,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -304,10 +339,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -664,7 +702,7 @@
   <dimension ref="A2:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,8 +987,14 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -971,6 +1015,12 @@
       </c>
       <c r="I13" t="s">
         <v>12</v>
+      </c>
+      <c r="J13" s="4">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1227,6 +1277,12 @@
       <c r="I22" t="s">
         <v>21</v>
       </c>
+      <c r="J22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1247,18 +1303,10 @@
       <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="I23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>